--- a/dqx_map_data.xlsx
+++ b/dqx_map_data.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="edges" sheetId="2" r:id="rId2"/>
+    <sheet name="changelog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="303">
   <si>
     <t>name</t>
   </si>
@@ -29,28 +30,421 @@
     <t>is_rura</t>
   </si>
   <si>
+    <t>キュララナ海岸</t>
+  </si>
+  <si>
+    <t>ケラコーナ原生林</t>
+  </si>
+  <si>
+    <t>コルット地方</t>
+  </si>
+  <si>
+    <t>シエラ巡礼地</t>
+  </si>
+  <si>
+    <t>ジュレイダ連塔遺跡</t>
+  </si>
+  <si>
+    <t>ジュレットの町</t>
+  </si>
+  <si>
+    <t>ジュレリア地下廃坑</t>
+  </si>
+  <si>
+    <t>ジュレー島上層</t>
+  </si>
+  <si>
+    <t>ジュレー島下層</t>
+  </si>
+  <si>
+    <t>ブーナー熱帯雨林</t>
+  </si>
+  <si>
+    <t>ミューズ海岸</t>
+  </si>
+  <si>
+    <t>ラーディス王島</t>
+  </si>
+  <si>
+    <t>レーナム緑野</t>
+  </si>
+  <si>
+    <t>レーンの村</t>
+  </si>
+  <si>
+    <t>ヴァース大山林</t>
+  </si>
+  <si>
+    <t>ヴェリナード城</t>
+  </si>
+  <si>
+    <t>ヴェリナード城下町</t>
+  </si>
+  <si>
+    <t>ヴェリナード領北</t>
+  </si>
+  <si>
+    <t>ヴェリナード領南</t>
+  </si>
+  <si>
+    <t>ヴェリナード領西</t>
+  </si>
+  <si>
+    <t>地底湖の洞くつ</t>
+  </si>
+  <si>
+    <t>密林の野営地</t>
+  </si>
+  <si>
+    <t>巨猫の巣</t>
+  </si>
+  <si>
+    <t>永遠の地下迷宮</t>
+  </si>
+  <si>
+    <t>浜辺の小屋</t>
+  </si>
+  <si>
+    <t>浜辺の洞くつ</t>
+  </si>
+  <si>
+    <t>海のとける洞くつ</t>
+  </si>
+  <si>
+    <t>海獣の巣</t>
+  </si>
+  <si>
+    <t>海辺の交易所</t>
+  </si>
+  <si>
+    <t>猫島</t>
+  </si>
+  <si>
+    <t>猫島桟橋</t>
+  </si>
+  <si>
+    <t>知恵の眠る遺跡</t>
+  </si>
+  <si>
+    <t>祈りの宿</t>
+  </si>
+  <si>
+    <t>詩歌の遺跡</t>
+  </si>
+  <si>
+    <t>アズラン地方</t>
+  </si>
+  <si>
+    <t>イナミノ街道</t>
+  </si>
+  <si>
+    <t>イムイ地下空洞</t>
+  </si>
+  <si>
+    <t>カミハルムイ城</t>
+  </si>
+  <si>
+    <t>カミハルムイ領北</t>
+  </si>
+  <si>
+    <t>カミハルムイ領南</t>
+  </si>
+  <si>
+    <t>カムイラの穴</t>
+  </si>
+  <si>
+    <t>ガケっぷち村跡</t>
+  </si>
+  <si>
+    <t>キリカ草原</t>
+  </si>
+  <si>
+    <t>スイのやしろ</t>
+  </si>
+  <si>
+    <t>スイの塔</t>
+  </si>
+  <si>
+    <t>スイゼン湿原</t>
+  </si>
+  <si>
+    <t>ツスクルの村</t>
+  </si>
+  <si>
+    <t>ツスクル平野</t>
+  </si>
+  <si>
+    <t>モリナラ地下洞</t>
+  </si>
+  <si>
+    <t>モリナラ大森林</t>
+  </si>
+  <si>
+    <t>モリナラ大森林・東入口前</t>
+  </si>
+  <si>
+    <t>モリナラ広場</t>
+  </si>
+  <si>
+    <t>レンジャー協会支部</t>
+  </si>
+  <si>
+    <t>久遠の森</t>
+  </si>
+  <si>
+    <t>呪われた大地</t>
+  </si>
+  <si>
+    <t>夢幻の森</t>
+  </si>
+  <si>
+    <t>夢幻の森・捨てられた城前</t>
+  </si>
+  <si>
+    <t>山間の関所</t>
+  </si>
+  <si>
+    <t>捨てられた城</t>
+  </si>
+  <si>
+    <t>時雨の泉</t>
+  </si>
+  <si>
+    <t>木かげの集落</t>
+  </si>
+  <si>
+    <t>森外れのほら穴</t>
+  </si>
+  <si>
+    <t>王都カミハルムイ</t>
+  </si>
+  <si>
+    <t>落陽の草原</t>
+  </si>
+  <si>
+    <t>謎の地下迷宮</t>
+  </si>
+  <si>
+    <t>風の町アズラン</t>
+  </si>
+  <si>
+    <t>オルセコ高地</t>
+  </si>
+  <si>
+    <t>ガートラント城</t>
+  </si>
+  <si>
+    <t>ガートラント城下町</t>
+  </si>
+  <si>
+    <t>ガートラント領</t>
+  </si>
+  <si>
+    <t>ギルザッド地方</t>
+  </si>
+  <si>
+    <t>グレゴールの洞くつ</t>
+  </si>
+  <si>
+    <t>グレン城</t>
+  </si>
+  <si>
+    <t>グレン城下町</t>
+  </si>
+  <si>
+    <t>グレン領東</t>
+  </si>
+  <si>
+    <t>グレン領西</t>
+  </si>
+  <si>
+    <t>ゲルト海峡</t>
+  </si>
+  <si>
+    <t>ゴズ渓谷</t>
+  </si>
+  <si>
+    <t>ザマ峠</t>
+  </si>
+  <si>
+    <t>ザマ烽火台</t>
+  </si>
+  <si>
+    <t>ダズの岩穴</t>
+  </si>
+  <si>
+    <t>ダズの岩穴・大空洞</t>
+  </si>
+  <si>
+    <t>トガス岩道</t>
+  </si>
+  <si>
+    <t>ナグアの洞くつ</t>
+  </si>
+  <si>
+    <t>バドリー岩石地帯</t>
+  </si>
+  <si>
+    <t>ベコン渓谷</t>
+  </si>
+  <si>
+    <t>ラギ雪原</t>
+  </si>
+  <si>
+    <t>ランガーオ山地</t>
+  </si>
+  <si>
+    <t>ランガーオ村</t>
+  </si>
+  <si>
+    <t>ランドンフット</t>
+  </si>
+  <si>
+    <t>ランドン山脈</t>
+  </si>
+  <si>
+    <t>ランドン山脈山頂付近</t>
+  </si>
+  <si>
+    <t>ロンダの氷穴</t>
+  </si>
+  <si>
+    <t>入り江の集落</t>
+  </si>
+  <si>
+    <t>古代オルセコ闘技場</t>
+  </si>
+  <si>
+    <t>海賊のアジト跡・地下</t>
+  </si>
+  <si>
+    <t>狩人のほら穴</t>
+  </si>
+  <si>
+    <t>獅子門</t>
+  </si>
+  <si>
+    <t>荒野の枯れ井戸</t>
+  </si>
+  <si>
+    <t>過去のグレン城</t>
+  </si>
+  <si>
+    <t>過去のグレン城下町</t>
+  </si>
+  <si>
+    <t>過去のランドン山脈</t>
+  </si>
+  <si>
+    <t>アクロニア鉱山</t>
+  </si>
+  <si>
+    <t>アグラニの町</t>
+  </si>
+  <si>
+    <t>ウルベア地下遺跡</t>
+  </si>
+  <si>
+    <t>エゼソル峡谷</t>
+  </si>
+  <si>
+    <t>オアシスの隊商宿</t>
+  </si>
+  <si>
+    <t>カルサドラ火山</t>
+  </si>
+  <si>
+    <t>カルデア山道</t>
+  </si>
+  <si>
+    <t>カルデア山道の横穴</t>
+  </si>
+  <si>
+    <t>カルデア洞穴</t>
+  </si>
+  <si>
+    <t>ガタラ原野</t>
+  </si>
+  <si>
+    <t>グルグ地下道</t>
+  </si>
+  <si>
+    <t>ゴブル砂漠東</t>
+  </si>
+  <si>
+    <t>ゴブル砂漠西</t>
+  </si>
+  <si>
+    <t>サーマリ高原</t>
+  </si>
+  <si>
+    <t>ザグバン丘陵</t>
+  </si>
+  <si>
+    <t>ザグビナ遺構</t>
+  </si>
+  <si>
+    <t>ダラズ採掘場</t>
+  </si>
+  <si>
+    <t>デマトード高地</t>
+  </si>
+  <si>
+    <t>ドルワーム王国</t>
+  </si>
+  <si>
+    <t>ボロヌスの穴</t>
+  </si>
+  <si>
+    <t>ボロヌス溶岩流</t>
+  </si>
+  <si>
+    <t>モガリム街道</t>
+  </si>
+  <si>
+    <t>モガレの洞くつ</t>
+  </si>
+  <si>
+    <t>モガレキャンプ</t>
+  </si>
+  <si>
+    <t>ラニアッカ断層帯</t>
+  </si>
+  <si>
+    <t>ラニ大洞穴</t>
+  </si>
+  <si>
+    <t>商人たちのテント</t>
+  </si>
+  <si>
     <t>岳都ガタラ</t>
   </si>
   <si>
-    <t>ガタラ原野</t>
-  </si>
-  <si>
-    <t>ウルベア地下遺跡</t>
-  </si>
-  <si>
-    <t>モガリム街道</t>
-  </si>
-  <si>
-    <t>モガレキャンプ</t>
-  </si>
-  <si>
-    <t>モガレの洞くつ</t>
-  </si>
-  <si>
-    <t>アグラニの町</t>
-  </si>
-  <si>
-    <t>ラニアッカ断層帯</t>
+    <t>最果ての地下遺跡</t>
+  </si>
+  <si>
+    <t>砂岩の洞くつ</t>
+  </si>
+  <si>
+    <t>過去のウルベア地下遺跡</t>
+  </si>
+  <si>
+    <t>遺跡の森</t>
+  </si>
+  <si>
+    <t>魔獣のナワ張り</t>
+  </si>
+  <si>
+    <t>けがれの谷</t>
+  </si>
+  <si>
+    <t>エピステーサ丘陵</t>
+  </si>
+  <si>
+    <t>オルッパ地下洞くつ</t>
+  </si>
+  <si>
+    <t>オルファの丘</t>
   </si>
   <si>
     <t>オルフェアの町</t>
@@ -62,9 +456,39 @@
     <t>オルフェア地方西</t>
   </si>
   <si>
+    <t>キラキラ大風車塔</t>
+  </si>
+  <si>
+    <t>キラキラ大風車塔内部</t>
+  </si>
+  <si>
+    <t>チョッピ荒野</t>
+  </si>
+  <si>
     <t>ピィピのお宿</t>
   </si>
   <si>
+    <t>フェルアバの洞くつ</t>
+  </si>
+  <si>
+    <t>プクレットの村</t>
+  </si>
+  <si>
+    <t>プクレット地方</t>
+  </si>
+  <si>
+    <t>プペラトンネル</t>
+  </si>
+  <si>
+    <t>プーラのほら穴</t>
+  </si>
+  <si>
+    <t>ペシュヤ地下空洞</t>
+  </si>
+  <si>
+    <t>ポポラパの洞くつ</t>
+  </si>
+  <si>
     <t>ポポリアきのこ山</t>
   </si>
   <si>
@@ -74,160 +498,271 @@
     <t>ミュルエルの森</t>
   </si>
   <si>
-    <t>フェルアバの洞くつ</t>
+    <t>メギストリスの都</t>
+  </si>
+  <si>
+    <t>メギストリス城</t>
+  </si>
+  <si>
+    <t>メギストリス領</t>
+  </si>
+  <si>
+    <t>メギラザの洞くつ</t>
+  </si>
+  <si>
+    <t>リンクル地方</t>
+  </si>
+  <si>
+    <t>底なし穴</t>
+  </si>
+  <si>
+    <t>賢者の隠れ家</t>
+  </si>
+  <si>
+    <t>銀の丘</t>
   </si>
   <si>
     <t>風車の丘</t>
   </si>
   <si>
-    <t>キラキラ大風車塔</t>
-  </si>
-  <si>
-    <t>メギストリス領</t>
-  </si>
-  <si>
-    <t>メギストリスの都</t>
-  </si>
-  <si>
-    <t>エピステーサ丘陵</t>
-  </si>
-  <si>
-    <t>チョッピ荒野</t>
-  </si>
-  <si>
-    <t>メギラザの洞くつ</t>
-  </si>
-  <si>
-    <t>プペラトンネル</t>
-  </si>
-  <si>
-    <t>リンクル地方</t>
-  </si>
-  <si>
-    <t>銀の丘</t>
-  </si>
-  <si>
-    <t>プクレットの村</t>
-  </si>
-  <si>
-    <t>プクレット地方</t>
-  </si>
-  <si>
-    <t>けがれの谷</t>
-  </si>
-  <si>
-    <t>ジュレットの町</t>
-  </si>
-  <si>
-    <t>ジュレー島上層</t>
-  </si>
-  <si>
-    <t>ジュレー島下層</t>
-  </si>
-  <si>
-    <t>ミューズ海岸</t>
-  </si>
-  <si>
-    <t>レーンの村</t>
-  </si>
-  <si>
-    <t>コルット地方</t>
-  </si>
-  <si>
-    <t>地底湖の洞くつ</t>
-  </si>
-  <si>
-    <t>レーナム緑野</t>
-  </si>
-  <si>
-    <t>祈りの宿</t>
-  </si>
-  <si>
-    <t>シエラ巡礼地</t>
-  </si>
-  <si>
-    <t>キュララナ海岸</t>
-  </si>
-  <si>
-    <t>風の町アズラン</t>
-  </si>
-  <si>
-    <t>アズラン地方</t>
-  </si>
-  <si>
-    <t>キリカ草原</t>
-  </si>
-  <si>
-    <t>ツスクルの村</t>
-  </si>
-  <si>
-    <t>ツスクル平野</t>
-  </si>
-  <si>
-    <t>久遠の森</t>
-  </si>
-  <si>
-    <t>イナミノ街道</t>
-  </si>
-  <si>
-    <t>カミハルムイ領南</t>
-  </si>
-  <si>
-    <t>カミハルムイ領北</t>
-  </si>
-  <si>
-    <t>王都カミハルムイ</t>
-  </si>
-  <si>
-    <t>グレン城下町</t>
-  </si>
-  <si>
-    <t>グレン城</t>
-  </si>
-  <si>
-    <t>グレン領東</t>
-  </si>
-  <si>
-    <t>グレン領西</t>
-  </si>
-  <si>
-    <t>獅子門</t>
-  </si>
-  <si>
-    <t>ベコン渓谷</t>
-  </si>
-  <si>
-    <t>グレゴールの洞くつ</t>
-  </si>
-  <si>
-    <t>ゲルト海峡</t>
+    <t>アラハギーロ地方</t>
+  </si>
+  <si>
+    <t>アラハギーロ王国</t>
+  </si>
+  <si>
+    <t>グランゼドーラ王国</t>
+  </si>
+  <si>
+    <t>ココラタの浜辺</t>
+  </si>
+  <si>
+    <t>コニウェア平原</t>
+  </si>
+  <si>
+    <t>ジャイラ密林</t>
+  </si>
+  <si>
+    <t>セレドの町</t>
+  </si>
+  <si>
+    <t>セレドット山道</t>
+  </si>
+  <si>
+    <t>ゼドラ洞</t>
+  </si>
+  <si>
+    <t>デフェル荒野</t>
+  </si>
+  <si>
+    <t>ナシームの洞窟</t>
+  </si>
+  <si>
+    <t>ピラミッド</t>
+  </si>
+  <si>
+    <t>ムルードの岩山</t>
+  </si>
+  <si>
+    <t>メルサンディ村</t>
+  </si>
+  <si>
+    <t>メルサンディ穀倉帯</t>
+  </si>
+  <si>
+    <t>リャナ荒涼地帯</t>
+  </si>
+  <si>
+    <t>リンジャの塔</t>
+  </si>
+  <si>
+    <t>リンジャハル海岸</t>
+  </si>
+  <si>
+    <t>レビュール街道北</t>
+  </si>
+  <si>
+    <t>レビュール街道南</t>
+  </si>
+  <si>
+    <t>ローヌ樹林帯</t>
+  </si>
+  <si>
+    <t>ワルド水源</t>
+  </si>
+  <si>
+    <t>三門の関所</t>
+  </si>
+  <si>
+    <t>創生の邪洞</t>
+  </si>
+  <si>
+    <t>夜宴館</t>
+  </si>
+  <si>
+    <t>日除けのほら穴</t>
+  </si>
+  <si>
+    <t>海風の洞窟</t>
+  </si>
+  <si>
+    <t>謎の地下水路</t>
+  </si>
+  <si>
+    <t>魔女の森</t>
+  </si>
+  <si>
+    <t>ねじれたる異形の大地</t>
+  </si>
+  <si>
+    <t>グランゼドーラ城</t>
+  </si>
+  <si>
+    <t>グランゼドーラ領</t>
+  </si>
+  <si>
+    <t>ソーラリア峡谷</t>
+  </si>
+  <si>
+    <t>ダーマ神殿</t>
+  </si>
+  <si>
+    <t>ドラクロン山地</t>
+  </si>
+  <si>
+    <t>ナルビアの町</t>
+  </si>
+  <si>
+    <t>モンセロ温泉峡</t>
+  </si>
+  <si>
+    <t>ラゼアの風穴</t>
+  </si>
+  <si>
+    <t>ラバニの穴</t>
+  </si>
+  <si>
+    <t>光の神殿</t>
+  </si>
+  <si>
+    <t>古き神の遺跡</t>
+  </si>
+  <si>
+    <t>悠久の回廊</t>
+  </si>
+  <si>
+    <t>清き水の洞くつ</t>
+  </si>
+  <si>
+    <t>真こもれびの広場</t>
+  </si>
+  <si>
+    <t>真アラハギーロ王国</t>
+  </si>
+  <si>
+    <t>真エテーネの村</t>
   </si>
   <si>
     <t>真グランゼドーラ王国</t>
   </si>
   <si>
-    <t>グランゼドーラ城</t>
-  </si>
-  <si>
-    <t>グランゼドーラ領</t>
+    <t>真セレドの町</t>
+  </si>
+  <si>
+    <t>真セレドット山道</t>
+  </si>
+  <si>
+    <t>真ゼドラ洞</t>
+  </si>
+  <si>
+    <t>真ナシームの洞窟</t>
+  </si>
+  <si>
+    <t>真ピラミッド</t>
+  </si>
+  <si>
+    <t>真メルサンディ村</t>
+  </si>
+  <si>
+    <t>真メルサンディ穀倉帯</t>
+  </si>
+  <si>
+    <t>真リンジャの塔</t>
+  </si>
+  <si>
+    <t>真ワルド水源</t>
   </si>
   <si>
     <t>真三門の関所</t>
   </si>
   <si>
-    <t>真ワルド水源</t>
-  </si>
-  <si>
-    <t>真メルサンディ穀倉帯</t>
-  </si>
-  <si>
-    <t>真メルサンディ村</t>
-  </si>
-  <si>
-    <t>真セレドット山道</t>
-  </si>
-  <si>
-    <t>真セレドの町</t>
+    <t>真海風の洞窟</t>
+  </si>
+  <si>
+    <t>真魔女の森</t>
+  </si>
+  <si>
+    <t>魔幻宮殿</t>
+  </si>
+  <si>
+    <t>港町レンドア南</t>
+  </si>
+  <si>
+    <t>港町レンドア北</t>
+  </si>
+  <si>
+    <t>橋上の宿</t>
+  </si>
+  <si>
+    <t>雪原の廃墟</t>
+  </si>
+  <si>
+    <t>娯楽島ラッカラン</t>
+  </si>
+  <si>
+    <t>熱砂洞</t>
+  </si>
+  <si>
+    <t>バブドル集落</t>
+  </si>
+  <si>
+    <t>バウガの風穴</t>
+  </si>
+  <si>
+    <t>猫島の北部</t>
+  </si>
+  <si>
+    <t>静寂のほこら</t>
+  </si>
+  <si>
+    <t>ドルワーム水晶宮</t>
+  </si>
+  <si>
+    <t>真レビュール街道南</t>
+  </si>
+  <si>
+    <t>真コニウェア平原</t>
+  </si>
+  <si>
+    <t>真ローヌ樹林帯</t>
+  </si>
+  <si>
+    <t>真リンジャハル海岸</t>
+  </si>
+  <si>
+    <t>真夜宴館</t>
+  </si>
+  <si>
+    <t>真グランゼドーラ領</t>
+  </si>
+  <si>
+    <t>ウェナ諸島</t>
+  </si>
+  <si>
+    <t>エルトナ大陸</t>
+  </si>
+  <si>
+    <t>オーグリード大陸</t>
   </si>
   <si>
     <t>ドワチャッカ大陸</t>
@@ -236,78 +771,75 @@
     <t>プクランド大陸</t>
   </si>
   <si>
-    <t>ウェナ諸島</t>
-  </si>
-  <si>
-    <t>エルトナ大陸</t>
-  </si>
-  <si>
-    <t>オーグリード大陸</t>
+    <t>偽りのレンダーシア</t>
   </si>
   <si>
     <t>真レンダーシア</t>
   </si>
   <si>
+    <t>レンダーシア</t>
+  </si>
+  <si>
+    <t>海岸</t>
+  </si>
+  <si>
+    <t>フィールド</t>
+  </si>
+  <si>
+    <t>塔/ダンジョン</t>
+  </si>
+  <si>
     <t>町/都市</t>
   </si>
   <si>
-    <t>フィールド</t>
-  </si>
-  <si>
     <t>ダンジョン</t>
   </si>
   <si>
+    <t>フィールド/洞くつ</t>
+  </si>
+  <si>
+    <t>村/拠点</t>
+  </si>
+  <si>
+    <t>城/施設</t>
+  </si>
+  <si>
+    <t>関所/拠点</t>
+  </si>
+  <si>
     <t>キャンプ/宿</t>
   </si>
   <si>
+    <t>街道/フィールド</t>
+  </si>
+  <si>
+    <t>森/フィールド</t>
+  </si>
+  <si>
+    <t>フィールド/海峡</t>
+  </si>
+  <si>
+    <t>フィールド/渓谷</t>
+  </si>
+  <si>
+    <t>洞くつ/トンネル</t>
+  </si>
+  <si>
     <t>宿/拠点</t>
   </si>
   <si>
+    <t>ダンジョン/谷</t>
+  </si>
+  <si>
     <t>ダンジョン/森</t>
   </si>
   <si>
     <t>フィールド/森</t>
   </si>
   <si>
-    <t>塔/ダンジョン</t>
-  </si>
-  <si>
-    <t>洞くつ/トンネル</t>
-  </si>
-  <si>
     <t>丘/拠点</t>
   </si>
   <si>
-    <t>村/拠点</t>
-  </si>
-  <si>
-    <t>ダンジョン/谷</t>
-  </si>
-  <si>
-    <t>フィールド/洞くつ</t>
-  </si>
-  <si>
-    <t>海岸</t>
-  </si>
-  <si>
-    <t>森/フィールド</t>
-  </si>
-  <si>
-    <t>街道/フィールド</t>
-  </si>
-  <si>
-    <t>城/施設</t>
-  </si>
-  <si>
-    <t>関所/拠点</t>
-  </si>
-  <si>
-    <t>フィールド/渓谷</t>
-  </si>
-  <si>
-    <t>フィールド/海峡</t>
-  </si>
-  <si>
     <t>フィールド/街道</t>
   </si>
   <si>
@@ -326,10 +858,73 @@
     <t>内部拠点</t>
   </si>
   <si>
+    <t>洞くつ入口</t>
+  </si>
+  <si>
+    <t>内部</t>
+  </si>
+  <si>
+    <t>集落入口</t>
+  </si>
+  <si>
+    <t>遺構入口</t>
+  </si>
+  <si>
+    <t>飛竜（竜笛）</t>
+  </si>
+  <si>
     <t>内部拠点(ルーラ可)</t>
   </si>
   <si>
+    <t>内部接続</t>
+  </si>
+  <si>
+    <t>徒歩</t>
+  </si>
+  <si>
+    <t>徒歩/初回</t>
+  </si>
+  <si>
+    <t>馬車</t>
+  </si>
+  <si>
+    <t>バシっ娘</t>
+  </si>
+  <si>
+    <t>メガルーラ</t>
+  </si>
+  <si>
+    <t>隣接（公式マップ記載）</t>
+  </si>
+  <si>
+    <t>隣接（攻略サイト記載）</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>note_before</t>
+  </si>
+  <si>
+    <t>2025-10-18 12:27:24</t>
+  </si>
+  <si>
+    <t>remove_edge</t>
+  </si>
+  <si>
+    <t>add_edge</t>
+  </si>
+  <si>
+    <t>add_node</t>
+  </si>
+  <si>
     <t>隣接（レビュール街道南 経由想定）</t>
+  </si>
+  <si>
+    <t>経路（真ローヌ樹林帯経由）</t>
   </si>
 </sst>
 </file>
@@ -687,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,13 +1307,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -726,10 +1321,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -740,10 +1335,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -754,10 +1349,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -768,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -782,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -796,13 +1391,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -810,10 +1405,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -824,13 +1419,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -838,10 +1433,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -852,10 +1447,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -866,10 +1461,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -880,10 +1475,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -894,10 +1489,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -908,10 +1503,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -922,10 +1517,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -936,13 +1531,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -950,10 +1545,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -964,10 +1559,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -978,13 +1573,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -992,10 +1587,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1006,13 +1601,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1020,10 +1615,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1034,10 +1629,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1048,13 +1643,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1062,10 +1657,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1076,10 +1671,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1090,10 +1685,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1104,10 +1699,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1118,13 +1713,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1132,13 +1727,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1146,10 +1741,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1160,13 +1755,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1174,10 +1769,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1188,10 +1783,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1202,10 +1797,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1216,10 +1811,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1230,13 +1825,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1244,10 +1839,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1258,10 +1853,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1272,13 +1867,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1286,13 +1881,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1300,10 +1895,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1314,10 +1909,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1328,10 +1923,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1342,10 +1937,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1356,10 +1951,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1370,10 +1965,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1384,10 +1979,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1398,13 +1993,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1412,10 +2007,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1426,10 +2021,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1440,13 +2035,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1454,10 +2049,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1468,10 +2063,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1482,10 +2077,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1496,13 +2091,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1510,10 +2105,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1524,13 +2119,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1538,10 +2133,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1552,10 +2147,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1566,10 +2161,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1580,13 +2175,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1594,10 +2189,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1608,13 +2203,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1622,13 +2217,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1636,13 +2231,2463 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="D68">
+      <c r="B75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75">
         <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C76" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" t="s">
+        <v>255</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" t="s">
+        <v>255</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" t="s">
+        <v>255</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" t="s">
+        <v>258</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" t="s">
+        <v>257</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" t="s">
+        <v>258</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" t="s">
+        <v>261</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" t="s">
+        <v>255</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s">
+        <v>264</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" t="s">
+        <v>268</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>249</v>
+      </c>
+      <c r="C112" t="s">
+        <v>268</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>255</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" t="s">
+        <v>255</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" t="s">
+        <v>255</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" t="s">
+        <v>255</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" t="s">
+        <v>257</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>249</v>
+      </c>
+      <c r="C127" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" t="s">
+        <v>255</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" t="s">
+        <v>263</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" t="s">
+        <v>257</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" t="s">
+        <v>258</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" t="s">
+        <v>258</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>249</v>
+      </c>
+      <c r="C136" t="s">
+        <v>258</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>250</v>
+      </c>
+      <c r="C137" t="s">
+        <v>270</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" t="s">
+        <v>255</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>250</v>
+      </c>
+      <c r="C139" t="s">
+        <v>268</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>250</v>
+      </c>
+      <c r="C140" t="s">
+        <v>263</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" t="s">
+        <v>257</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>250</v>
+      </c>
+      <c r="C142" t="s">
+        <v>255</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>250</v>
+      </c>
+      <c r="C143" t="s">
+        <v>255</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>250</v>
+      </c>
+      <c r="C145" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146" t="s">
+        <v>255</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>250</v>
+      </c>
+      <c r="C147" t="s">
+        <v>269</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>250</v>
+      </c>
+      <c r="C148" t="s">
+        <v>258</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" t="s">
+        <v>260</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" t="s">
+        <v>255</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>250</v>
+      </c>
+      <c r="C152" t="s">
+        <v>268</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>250</v>
+      </c>
+      <c r="C153" t="s">
+        <v>258</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>250</v>
+      </c>
+      <c r="C154" t="s">
+        <v>258</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>250</v>
+      </c>
+      <c r="C155" t="s">
+        <v>271</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>250</v>
+      </c>
+      <c r="C156" t="s">
+        <v>255</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>250</v>
+      </c>
+      <c r="C157" t="s">
+        <v>272</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>250</v>
+      </c>
+      <c r="C158" t="s">
+        <v>257</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>250</v>
+      </c>
+      <c r="C159" t="s">
+        <v>261</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>250</v>
+      </c>
+      <c r="C160" t="s">
+        <v>255</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>250</v>
+      </c>
+      <c r="C161" t="s">
+        <v>258</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" t="s">
+        <v>255</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>250</v>
+      </c>
+      <c r="C163" t="s">
+        <v>258</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>250</v>
+      </c>
+      <c r="C164" t="s">
+        <v>258</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>250</v>
+      </c>
+      <c r="C165" t="s">
+        <v>273</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>250</v>
+      </c>
+      <c r="C166" t="s">
+        <v>255</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>251</v>
+      </c>
+      <c r="C167" t="s">
+        <v>255</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>251</v>
+      </c>
+      <c r="C168" t="s">
+        <v>257</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>251</v>
+      </c>
+      <c r="C169" t="s">
+        <v>257</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>251</v>
+      </c>
+      <c r="C170" t="s">
+        <v>254</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>251</v>
+      </c>
+      <c r="C171" t="s">
+        <v>255</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>251</v>
+      </c>
+      <c r="C172" t="s">
+        <v>255</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>251</v>
+      </c>
+      <c r="C173" t="s">
+        <v>257</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>251</v>
+      </c>
+      <c r="C174" t="s">
+        <v>255</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>251</v>
+      </c>
+      <c r="C175" t="s">
+        <v>258</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>251</v>
+      </c>
+      <c r="C176" t="s">
+        <v>255</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>251</v>
+      </c>
+      <c r="C177" t="s">
+        <v>258</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" t="s">
+        <v>258</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>251</v>
+      </c>
+      <c r="C179" t="s">
+        <v>268</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>251</v>
+      </c>
+      <c r="C180" t="s">
+        <v>260</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>251</v>
+      </c>
+      <c r="C181" t="s">
+        <v>255</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>251</v>
+      </c>
+      <c r="C182" t="s">
+        <v>255</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>251</v>
+      </c>
+      <c r="C183" t="s">
+        <v>256</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C184" t="s">
+        <v>255</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>251</v>
+      </c>
+      <c r="C185" t="s">
+        <v>255</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>251</v>
+      </c>
+      <c r="C186" t="s">
+        <v>255</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>251</v>
+      </c>
+      <c r="C187" t="s">
+        <v>255</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" t="s">
+        <v>251</v>
+      </c>
+      <c r="C188" t="s">
+        <v>255</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>251</v>
+      </c>
+      <c r="C189" t="s">
+        <v>262</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>251</v>
+      </c>
+      <c r="C190" t="s">
+        <v>258</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>251</v>
+      </c>
+      <c r="C191" t="s">
+        <v>258</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" t="s">
+        <v>251</v>
+      </c>
+      <c r="C192" t="s">
+        <v>268</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>251</v>
+      </c>
+      <c r="C193" t="s">
+        <v>258</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>251</v>
+      </c>
+      <c r="C194" t="s">
+        <v>258</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>251</v>
+      </c>
+      <c r="C195" t="s">
+        <v>255</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" t="s">
+        <v>252</v>
+      </c>
+      <c r="C196" t="s">
+        <v>255</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>252</v>
+      </c>
+      <c r="C197" t="s">
+        <v>261</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" t="s">
+        <v>252</v>
+      </c>
+      <c r="C198" t="s">
+        <v>255</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>252</v>
+      </c>
+      <c r="C199" t="s">
+        <v>267</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" t="s">
+        <v>252</v>
+      </c>
+      <c r="C200" t="s">
+        <v>261</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>252</v>
+      </c>
+      <c r="C201" t="s">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" t="s">
+        <v>252</v>
+      </c>
+      <c r="C202" t="s">
+        <v>257</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>252</v>
+      </c>
+      <c r="C203" t="s">
+        <v>267</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>252</v>
+      </c>
+      <c r="C204" t="s">
+        <v>258</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>252</v>
+      </c>
+      <c r="C205" t="s">
+        <v>258</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" t="s">
+        <v>252</v>
+      </c>
+      <c r="C206" t="s">
+        <v>261</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>252</v>
+      </c>
+      <c r="C207" t="s">
+        <v>258</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" t="s">
+        <v>252</v>
+      </c>
+      <c r="C208" t="s">
+        <v>258</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" t="s">
+        <v>268</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" t="s">
+        <v>252</v>
+      </c>
+      <c r="C210" t="s">
+        <v>255</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>252</v>
+      </c>
+      <c r="C211" t="s">
+        <v>257</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" t="s">
+        <v>252</v>
+      </c>
+      <c r="C212" t="s">
+        <v>260</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>252</v>
+      </c>
+      <c r="C213" t="s">
+        <v>257</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214" t="s">
+        <v>252</v>
+      </c>
+      <c r="C214" t="s">
+        <v>257</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>252</v>
+      </c>
+      <c r="C215" t="s">
+        <v>274</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" t="s">
+        <v>252</v>
+      </c>
+      <c r="C216" t="s">
+        <v>258</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>252</v>
+      </c>
+      <c r="C217" t="s">
+        <v>258</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" t="s">
+        <v>252</v>
+      </c>
+      <c r="C218" t="s">
+        <v>258</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>252</v>
+      </c>
+      <c r="C219" t="s">
+        <v>260</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" t="s">
+        <v>252</v>
+      </c>
+      <c r="C220" t="s">
+        <v>255</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>252</v>
+      </c>
+      <c r="C221" t="s">
+        <v>256</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" t="s">
+        <v>252</v>
+      </c>
+      <c r="C222" t="s">
+        <v>255</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>252</v>
+      </c>
+      <c r="C223" t="s">
+        <v>262</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" t="s">
+        <v>252</v>
+      </c>
+      <c r="C224" t="s">
+        <v>258</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>252</v>
+      </c>
+      <c r="C225" t="s">
+        <v>255</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" t="s">
+        <v>252</v>
+      </c>
+      <c r="C226" t="s">
+        <v>258</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" t="s">
+        <v>253</v>
+      </c>
+      <c r="C227" t="s">
+        <v>257</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" t="s">
+        <v>253</v>
+      </c>
+      <c r="C228" t="s">
+        <v>257</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" t="s">
+        <v>248</v>
+      </c>
+      <c r="C229" t="s">
+        <v>269</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" t="s">
+        <v>248</v>
+      </c>
+      <c r="C230" t="s">
+        <v>258</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" t="s">
+        <v>253</v>
+      </c>
+      <c r="C231" t="s">
+        <v>257</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" t="s">
+        <v>249</v>
+      </c>
+      <c r="C232" t="s">
+        <v>268</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" t="s">
+        <v>248</v>
+      </c>
+      <c r="C233" t="s">
+        <v>257</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" t="s">
+        <v>248</v>
+      </c>
+      <c r="C234" t="s">
+        <v>268</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" t="s">
+        <v>246</v>
+      </c>
+      <c r="C235" t="s">
+        <v>255</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" t="s">
+        <v>246</v>
+      </c>
+      <c r="C236" t="s">
+        <v>258</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" t="s">
+        <v>249</v>
+      </c>
+      <c r="C237" t="s">
+        <v>261</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" t="s">
+        <v>252</v>
+      </c>
+      <c r="C238" t="s">
+        <v>255</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239" t="s">
+        <v>252</v>
+      </c>
+      <c r="C239" t="s">
+        <v>255</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" t="s">
+        <v>252</v>
+      </c>
+      <c r="C240" t="s">
+        <v>255</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" t="s">
+        <v>252</v>
+      </c>
+      <c r="C241" t="s">
+        <v>255</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242" t="s">
+        <v>252</v>
+      </c>
+      <c r="C242" t="s">
+        <v>258</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243" t="s">
+        <v>252</v>
+      </c>
+      <c r="C243" t="s">
+        <v>255</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +4697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1660,1443 +4705,4868 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C104" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C122" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C126" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C130" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" t="s">
+        <v>209</v>
+      </c>
+      <c r="C148" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>84</v>
+      </c>
+      <c r="B149" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>85</v>
+      </c>
+      <c r="B151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>148</v>
+      </c>
+      <c r="B154" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>50</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>51</v>
+      </c>
+      <c r="B158" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>123</v>
+      </c>
+      <c r="B160" t="s">
+        <v>119</v>
+      </c>
+      <c r="C160" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>86</v>
+      </c>
+      <c r="B161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>124</v>
+      </c>
+      <c r="B162" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>87</v>
+      </c>
+      <c r="B163" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" t="s">
+        <v>208</v>
+      </c>
+      <c r="C164" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>88</v>
+      </c>
+      <c r="B165" t="s">
+        <v>73</v>
+      </c>
+      <c r="C165" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" t="s">
+        <v>144</v>
+      </c>
+      <c r="C166" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>180</v>
+      </c>
+      <c r="B167" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>151</v>
+      </c>
+      <c r="B171" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>152</v>
+      </c>
+      <c r="B172" t="s">
+        <v>139</v>
+      </c>
+      <c r="C172" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>153</v>
+      </c>
+      <c r="B175" t="s">
+        <v>162</v>
+      </c>
+      <c r="C175" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" t="s">
+        <v>78</v>
+      </c>
+      <c r="C176" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>89</v>
+      </c>
+      <c r="B177" t="s">
+        <v>79</v>
+      </c>
+      <c r="C177" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>155</v>
+      </c>
+      <c r="B178" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>125</v>
+      </c>
+      <c r="B179" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>126</v>
+      </c>
+      <c r="B180" t="s">
+        <v>118</v>
+      </c>
+      <c r="C180" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181" t="s">
+        <v>125</v>
+      </c>
+      <c r="C181" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>126</v>
+      </c>
+      <c r="B182" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>156</v>
+      </c>
+      <c r="B183" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" t="s">
+        <v>144</v>
+      </c>
+      <c r="C184" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>158</v>
+      </c>
+      <c r="B185" t="s">
+        <v>144</v>
+      </c>
+      <c r="C185" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>158</v>
+      </c>
+      <c r="B186" t="s">
+        <v>152</v>
+      </c>
+      <c r="C186" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>158</v>
+      </c>
+      <c r="B187" t="s">
+        <v>155</v>
+      </c>
+      <c r="C187" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>158</v>
+      </c>
+      <c r="B188" t="s">
+        <v>156</v>
+      </c>
+      <c r="C188" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>158</v>
+      </c>
+      <c r="B189" t="s">
+        <v>166</v>
+      </c>
+      <c r="C189" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>159</v>
+      </c>
+      <c r="B190" t="s">
+        <v>145</v>
+      </c>
+      <c r="C190" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>181</v>
+      </c>
+      <c r="B197" t="s">
+        <v>169</v>
+      </c>
+      <c r="C197" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>160</v>
+      </c>
+      <c r="B198" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>160</v>
+      </c>
+      <c r="B199" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>161</v>
+      </c>
+      <c r="B200" t="s">
+        <v>160</v>
+      </c>
+      <c r="C200" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>162</v>
+      </c>
+      <c r="B201" t="s">
+        <v>140</v>
+      </c>
+      <c r="C201" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" t="s">
+        <v>148</v>
+      </c>
+      <c r="C202" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>162</v>
+      </c>
+      <c r="B203" t="s">
+        <v>153</v>
+      </c>
+      <c r="C203" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>162</v>
+      </c>
+      <c r="B204" t="s">
+        <v>160</v>
+      </c>
+      <c r="C204" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" t="s">
+        <v>163</v>
+      </c>
+      <c r="C205" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>162</v>
+      </c>
+      <c r="B206" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>163</v>
+      </c>
+      <c r="B207" t="s">
+        <v>162</v>
+      </c>
+      <c r="C207" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>182</v>
+      </c>
+      <c r="B208" t="s">
+        <v>183</v>
+      </c>
+      <c r="C208" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>127</v>
+      </c>
+      <c r="B209" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>127</v>
+      </c>
+      <c r="B210" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>127</v>
+      </c>
+      <c r="B211" t="s">
+        <v>128</v>
+      </c>
+      <c r="C211" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>127</v>
+      </c>
+      <c r="B212" t="s">
+        <v>129</v>
+      </c>
+      <c r="C212" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>127</v>
+      </c>
+      <c r="B213" t="s">
+        <v>130</v>
+      </c>
+      <c r="C213" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>128</v>
+      </c>
+      <c r="B214" t="s">
+        <v>127</v>
+      </c>
+      <c r="C214" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>129</v>
+      </c>
+      <c r="B215" t="s">
+        <v>127</v>
+      </c>
+      <c r="C215" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>53</v>
+      </c>
+      <c r="B218" t="s">
+        <v>46</v>
+      </c>
+      <c r="C218" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>53</v>
+      </c>
+      <c r="B219" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>53</v>
+      </c>
+      <c r="B220" t="s">
+        <v>54</v>
+      </c>
+      <c r="C220" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>53</v>
+      </c>
+      <c r="B221" t="s">
+        <v>55</v>
+      </c>
+      <c r="C221" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>53</v>
+      </c>
+      <c r="B222" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>53</v>
+      </c>
+      <c r="B223" t="s">
+        <v>65</v>
+      </c>
+      <c r="C223" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>54</v>
+      </c>
+      <c r="B224" t="s">
+        <v>53</v>
+      </c>
+      <c r="C224" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>55</v>
+      </c>
+      <c r="B225" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>90</v>
+      </c>
+      <c r="B226" t="s">
+        <v>91</v>
+      </c>
+      <c r="C226" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>130</v>
+      </c>
+      <c r="B227" t="s">
+        <v>107</v>
+      </c>
+      <c r="C227" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>130</v>
+      </c>
+      <c r="B228" t="s">
+        <v>127</v>
+      </c>
+      <c r="C228" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>130</v>
+      </c>
+      <c r="B229" t="s">
+        <v>131</v>
+      </c>
+      <c r="C229" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>131</v>
+      </c>
+      <c r="B230" t="s">
+        <v>130</v>
+      </c>
+      <c r="C230" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>131</v>
+      </c>
+      <c r="B231" t="s">
+        <v>138</v>
+      </c>
+      <c r="C231" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>91</v>
+      </c>
+      <c r="B232" t="s">
+        <v>84</v>
+      </c>
+      <c r="C232" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>91</v>
+      </c>
+      <c r="B233" t="s">
+        <v>87</v>
+      </c>
+      <c r="C233" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>91</v>
+      </c>
+      <c r="B234" t="s">
+        <v>90</v>
+      </c>
+      <c r="C234" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>91</v>
+      </c>
+      <c r="B235" t="s">
+        <v>92</v>
+      </c>
+      <c r="C235" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>91</v>
+      </c>
+      <c r="B236" t="s">
+        <v>96</v>
+      </c>
+      <c r="C236" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>92</v>
+      </c>
+      <c r="B237" t="s">
+        <v>91</v>
+      </c>
+      <c r="C237" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>93</v>
+      </c>
+      <c r="B238" t="s">
+        <v>80</v>
+      </c>
+      <c r="C238" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>93</v>
+      </c>
+      <c r="B239" t="s">
+        <v>81</v>
+      </c>
+      <c r="C239" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>93</v>
+      </c>
+      <c r="B240" t="s">
+        <v>82</v>
+      </c>
+      <c r="C240" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>93</v>
+      </c>
+      <c r="B241" t="s">
+        <v>94</v>
+      </c>
+      <c r="C241" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>94</v>
+      </c>
+      <c r="B242" t="s">
+        <v>80</v>
+      </c>
+      <c r="C242" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>94</v>
+      </c>
+      <c r="B243" t="s">
+        <v>93</v>
+      </c>
+      <c r="C243" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>94</v>
+      </c>
+      <c r="B244" t="s">
+        <v>95</v>
+      </c>
+      <c r="C244" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>95</v>
+      </c>
+      <c r="B245" t="s">
+        <v>94</v>
+      </c>
+      <c r="C245" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" t="s">
+        <v>28</v>
+      </c>
+      <c r="C247" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" t="s">
+        <v>35</v>
+      </c>
+      <c r="C248" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>164</v>
+      </c>
+      <c r="B249" t="s">
+        <v>145</v>
+      </c>
+      <c r="C249" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>164</v>
+      </c>
+      <c r="B250" t="s">
+        <v>167</v>
+      </c>
+      <c r="C250" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>185</v>
+      </c>
+      <c r="B251" t="s">
+        <v>186</v>
+      </c>
+      <c r="C251" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>56</v>
+      </c>
+      <c r="B252" t="s">
+        <v>53</v>
+      </c>
+      <c r="C252" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>16</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>16</v>
+      </c>
+      <c r="B256" t="s">
+        <v>36</v>
+      </c>
+      <c r="C256" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>17</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>96</v>
+      </c>
+      <c r="B258" t="s">
+        <v>91</v>
+      </c>
+      <c r="C258" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>18</v>
+      </c>
+      <c r="B259" t="s">
+        <v>21</v>
+      </c>
+      <c r="C259" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260" t="s">
+        <v>21</v>
+      </c>
+      <c r="C260" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>21</v>
+      </c>
+      <c r="B262" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>21</v>
+      </c>
+      <c r="B265" t="s">
+        <v>27</v>
+      </c>
+      <c r="C265" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" t="s">
+        <v>20</v>
+      </c>
+      <c r="C267" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" t="s">
+        <v>21</v>
+      </c>
+      <c r="C268" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" t="s">
+        <v>32</v>
+      </c>
+      <c r="C270" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>57</v>
+      </c>
+      <c r="B272" t="s">
+        <v>51</v>
+      </c>
+      <c r="C272" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>208</v>
+      </c>
+      <c r="B273" t="s">
+        <v>210</v>
+      </c>
+      <c r="C273" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>98</v>
+      </c>
+      <c r="B274" t="s">
         <v>70</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C274" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>132</v>
+      </c>
+      <c r="B275" t="s">
+        <v>118</v>
+      </c>
+      <c r="C275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>59</v>
+      </c>
+      <c r="B277" t="s">
+        <v>42</v>
+      </c>
+      <c r="C277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>59</v>
+      </c>
+      <c r="B278" t="s">
+        <v>60</v>
+      </c>
+      <c r="C278" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>59</v>
+      </c>
+      <c r="B279" t="s">
+        <v>62</v>
+      </c>
+      <c r="C279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>60</v>
+      </c>
+      <c r="B280" t="s">
+        <v>59</v>
+      </c>
+      <c r="C280" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>60</v>
+      </c>
+      <c r="B281" t="s">
+        <v>62</v>
+      </c>
+      <c r="C281" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>133</v>
+      </c>
+      <c r="B283" t="s">
+        <v>115</v>
+      </c>
+      <c r="C283" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>26</v>
+      </c>
+      <c r="B284" t="s">
+        <v>33</v>
+      </c>
+      <c r="C284" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>165</v>
+      </c>
+      <c r="B285" t="s">
+        <v>140</v>
+      </c>
+      <c r="C285" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>62</v>
+      </c>
+      <c r="B286" t="s">
+        <v>59</v>
+      </c>
+      <c r="C286" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>62</v>
+      </c>
+      <c r="B287" t="s">
+        <v>60</v>
+      </c>
+      <c r="C287" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>194</v>
+      </c>
+      <c r="B288" t="s">
+        <v>169</v>
+      </c>
+      <c r="C288" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>63</v>
+      </c>
+      <c r="B289" t="s">
+        <v>43</v>
+      </c>
+      <c r="C289" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>134</v>
+      </c>
+      <c r="B290" t="s">
+        <v>126</v>
+      </c>
+      <c r="C290" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>65</v>
+      </c>
+      <c r="B291" t="s">
+        <v>53</v>
+      </c>
+      <c r="C291" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>27</v>
+      </c>
+      <c r="B292" t="s">
+        <v>21</v>
+      </c>
+      <c r="C292" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>28</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>28</v>
+      </c>
+      <c r="B294" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>29</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>30</v>
+      </c>
+      <c r="B297" t="s">
+        <v>31</v>
+      </c>
+      <c r="C297" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>31</v>
+      </c>
+      <c r="B298" t="s">
+        <v>30</v>
+      </c>
+      <c r="C298" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>99</v>
+      </c>
+      <c r="B299" t="s">
+        <v>74</v>
+      </c>
+      <c r="C299" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>32</v>
+      </c>
+      <c r="B300" t="s">
+        <v>22</v>
+      </c>
+      <c r="C300" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>100</v>
+      </c>
+      <c r="B301" t="s">
+        <v>74</v>
+      </c>
+      <c r="C301" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>33</v>
+      </c>
+      <c r="B302" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>33</v>
+      </c>
+      <c r="B303" t="s">
+        <v>26</v>
+      </c>
+      <c r="C303" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>33</v>
+      </c>
+      <c r="B304" t="s">
+        <v>34</v>
+      </c>
+      <c r="C304" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>34</v>
+      </c>
+      <c r="B305" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>34</v>
+      </c>
+      <c r="B306" t="s">
+        <v>33</v>
+      </c>
+      <c r="C306" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>101</v>
+      </c>
+      <c r="B307" t="s">
+        <v>78</v>
+      </c>
+      <c r="C307" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>66</v>
+      </c>
+      <c r="B308" t="s">
+        <v>42</v>
+      </c>
+      <c r="C308" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>66</v>
+      </c>
+      <c r="B309" t="s">
+        <v>43</v>
+      </c>
+      <c r="C309" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>212</v>
+      </c>
+      <c r="B310" t="s">
+        <v>222</v>
+      </c>
+      <c r="C310" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>215</v>
+      </c>
+      <c r="B311" t="s">
+        <v>199</v>
+      </c>
+      <c r="C311" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>216</v>
+      </c>
+      <c r="B312" t="s">
+        <v>217</v>
+      </c>
+      <c r="C312" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>217</v>
+      </c>
+      <c r="B313" t="s">
+        <v>216</v>
+      </c>
+      <c r="C313" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>217</v>
+      </c>
+      <c r="B314" t="s">
+        <v>224</v>
+      </c>
+      <c r="C314" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>221</v>
+      </c>
+      <c r="B315" t="s">
+        <v>222</v>
+      </c>
+      <c r="C315" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>222</v>
+      </c>
+      <c r="B316" t="s">
+        <v>221</v>
+      </c>
+      <c r="C316" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>222</v>
+      </c>
+      <c r="B317" t="s">
+        <v>224</v>
+      </c>
+      <c r="C317" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>224</v>
+      </c>
+      <c r="B318" t="s">
+        <v>217</v>
+      </c>
+      <c r="C318" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>224</v>
+      </c>
+      <c r="B319" t="s">
+        <v>222</v>
+      </c>
+      <c r="C319" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>224</v>
+      </c>
+      <c r="B320" t="s">
+        <v>225</v>
+      </c>
+      <c r="C320" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>225</v>
+      </c>
+      <c r="B321" t="s">
+        <v>224</v>
+      </c>
+      <c r="C321" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>35</v>
+      </c>
+      <c r="B322" t="s">
+        <v>15</v>
+      </c>
+      <c r="C322" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>135</v>
+      </c>
+      <c r="B323" t="s">
+        <v>117</v>
+      </c>
+      <c r="C323" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>36</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>102</v>
+      </c>
+      <c r="B325" t="s">
+        <v>73</v>
+      </c>
+      <c r="C325" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>67</v>
+      </c>
+      <c r="B326" t="s">
+        <v>45</v>
+      </c>
+      <c r="C326" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>37</v>
+      </c>
+      <c r="B327" t="s">
+        <v>13</v>
+      </c>
+      <c r="C327" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>158</v>
+      </c>
+      <c r="C328" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>104</v>
+      </c>
+      <c r="B329" t="s">
+        <v>103</v>
+      </c>
+      <c r="C329" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>167</v>
+      </c>
+      <c r="B330" t="s">
+        <v>164</v>
+      </c>
+      <c r="C330" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
         <v>69</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B331" t="s">
+        <v>38</v>
+      </c>
+      <c r="C331" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>145</v>
+      </c>
+      <c r="C332" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>146</v>
+      </c>
+      <c r="C333" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>168</v>
+      </c>
+      <c r="B334" t="s">
+        <v>162</v>
+      </c>
+      <c r="C334" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>197</v>
+      </c>
+      <c r="B335" t="s">
+        <v>186</v>
+      </c>
+      <c r="C335" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>197</v>
+      </c>
+      <c r="B336" t="s">
+        <v>189</v>
+      </c>
+      <c r="C336" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>197</v>
+      </c>
+      <c r="B337" t="s">
+        <v>193</v>
+      </c>
+      <c r="C337" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>138</v>
+      </c>
+      <c r="B338" t="s">
+        <v>131</v>
+      </c>
+      <c r="C338" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>229</v>
+      </c>
+      <c r="B339" t="s">
+        <v>230</v>
+      </c>
+      <c r="C339" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>230</v>
+      </c>
+      <c r="B340" t="s">
+        <v>229</v>
+      </c>
+      <c r="C340" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>80</v>
+      </c>
+      <c r="B341" t="s">
+        <v>231</v>
+      </c>
+      <c r="C341" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>231</v>
+      </c>
+      <c r="B342" t="s">
+        <v>80</v>
+      </c>
+      <c r="C342" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>91</v>
+      </c>
+      <c r="B343" t="s">
+        <v>232</v>
+      </c>
+      <c r="C343" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>232</v>
+      </c>
+      <c r="B344" t="s">
+        <v>91</v>
+      </c>
+      <c r="C344" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>117</v>
+      </c>
+      <c r="B345" t="s">
+        <v>234</v>
+      </c>
+      <c r="C345" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>234</v>
+      </c>
+      <c r="B346" t="s">
+        <v>117</v>
+      </c>
+      <c r="C346" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>81</v>
+      </c>
+      <c r="B347" t="s">
+        <v>235</v>
+      </c>
+      <c r="C347" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>235</v>
+      </c>
+      <c r="B348" t="s">
+        <v>81</v>
+      </c>
+      <c r="C348" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>70</v>
+      </c>
+      <c r="B349" t="s">
+        <v>236</v>
+      </c>
+      <c r="C349" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>236</v>
+      </c>
+      <c r="B350" t="s">
+        <v>70</v>
+      </c>
+      <c r="C350" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>38</v>
+      </c>
+      <c r="B351" t="s">
+        <v>64</v>
+      </c>
+      <c r="C351" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>64</v>
+      </c>
+      <c r="B352" t="s">
+        <v>38</v>
+      </c>
+      <c r="C352" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>77</v>
+      </c>
+      <c r="B353" t="s">
+        <v>78</v>
+      </c>
+      <c r="C353" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>78</v>
+      </c>
+      <c r="B354" t="s">
+        <v>77</v>
+      </c>
+      <c r="C354" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>78</v>
+      </c>
+      <c r="B355" t="s">
         <v>101</v>
+      </c>
+      <c r="C355" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>101</v>
+      </c>
+      <c r="B356" t="s">
+        <v>78</v>
+      </c>
+      <c r="C356" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>101</v>
+      </c>
+      <c r="B357" t="s">
+        <v>91</v>
+      </c>
+      <c r="C357" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>91</v>
+      </c>
+      <c r="B358" t="s">
+        <v>101</v>
+      </c>
+      <c r="C358" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>91</v>
+      </c>
+      <c r="B359" t="s">
+        <v>87</v>
+      </c>
+      <c r="C359" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>87</v>
+      </c>
+      <c r="B360" t="s">
+        <v>91</v>
+      </c>
+      <c r="C360" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>77</v>
+      </c>
+      <c r="B361" t="s">
+        <v>101</v>
+      </c>
+      <c r="C361" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>101</v>
+      </c>
+      <c r="B362" t="s">
+        <v>77</v>
+      </c>
+      <c r="C362" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>101</v>
+      </c>
+      <c r="B363" t="s">
+        <v>91</v>
+      </c>
+      <c r="C363" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>91</v>
+      </c>
+      <c r="B364" t="s">
+        <v>101</v>
+      </c>
+      <c r="C364" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>91</v>
+      </c>
+      <c r="B365" t="s">
+        <v>87</v>
+      </c>
+      <c r="C365" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>87</v>
+      </c>
+      <c r="B366" t="s">
+        <v>91</v>
+      </c>
+      <c r="C366" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>101</v>
+      </c>
+      <c r="B367" t="s">
+        <v>91</v>
+      </c>
+      <c r="C367" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>91</v>
+      </c>
+      <c r="B368" t="s">
+        <v>101</v>
+      </c>
+      <c r="C368" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>91</v>
+      </c>
+      <c r="B369" t="s">
+        <v>87</v>
+      </c>
+      <c r="C369" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>87</v>
+      </c>
+      <c r="B370" t="s">
+        <v>91</v>
+      </c>
+      <c r="C370" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>101</v>
+      </c>
+      <c r="B371" t="s">
+        <v>91</v>
+      </c>
+      <c r="C371" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>91</v>
+      </c>
+      <c r="B372" t="s">
+        <v>101</v>
+      </c>
+      <c r="C372" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>91</v>
+      </c>
+      <c r="B373" t="s">
+        <v>87</v>
+      </c>
+      <c r="C373" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>87</v>
+      </c>
+      <c r="B374" t="s">
+        <v>91</v>
+      </c>
+      <c r="C374" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>91</v>
+      </c>
+      <c r="B375" t="s">
+        <v>101</v>
+      </c>
+      <c r="C375" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>101</v>
+      </c>
+      <c r="B376" t="s">
+        <v>91</v>
+      </c>
+      <c r="C376" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>19</v>
+      </c>
+      <c r="B377" t="s">
+        <v>20</v>
+      </c>
+      <c r="C377" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>20</v>
+      </c>
+      <c r="B378" t="s">
+        <v>19</v>
+      </c>
+      <c r="C378" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>237</v>
+      </c>
+      <c r="B379" t="s">
+        <v>14</v>
+      </c>
+      <c r="C379" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>14</v>
+      </c>
+      <c r="B380" t="s">
+        <v>237</v>
+      </c>
+      <c r="C380" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>237</v>
+      </c>
+      <c r="B381" t="s">
+        <v>26</v>
+      </c>
+      <c r="C381" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>26</v>
+      </c>
+      <c r="B382" t="s">
+        <v>237</v>
+      </c>
+      <c r="C382" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>237</v>
+      </c>
+      <c r="B383" t="s">
+        <v>33</v>
+      </c>
+      <c r="C383" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>33</v>
+      </c>
+      <c r="B384" t="s">
+        <v>237</v>
+      </c>
+      <c r="C384" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>137</v>
+      </c>
+      <c r="B385" t="s">
+        <v>115</v>
+      </c>
+      <c r="C385" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>115</v>
+      </c>
+      <c r="B386" t="s">
+        <v>137</v>
+      </c>
+      <c r="C386" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>239</v>
+      </c>
+      <c r="B387" t="s">
+        <v>124</v>
+      </c>
+      <c r="C387" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>124</v>
+      </c>
+      <c r="B388" t="s">
+        <v>239</v>
+      </c>
+      <c r="C388" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>238</v>
+      </c>
+      <c r="B389" t="s">
+        <v>21</v>
+      </c>
+      <c r="C389" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>21</v>
+      </c>
+      <c r="B390" t="s">
+        <v>238</v>
+      </c>
+      <c r="C390" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>67</v>
+      </c>
+      <c r="B391" t="s">
+        <v>42</v>
+      </c>
+      <c r="C391" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>42</v>
+      </c>
+      <c r="B392" t="s">
+        <v>67</v>
+      </c>
+      <c r="C392" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>67</v>
+      </c>
+      <c r="B393" t="s">
+        <v>58</v>
+      </c>
+      <c r="C393" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>58</v>
+      </c>
+      <c r="B394" t="s">
+        <v>67</v>
+      </c>
+      <c r="C394" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>188</v>
+      </c>
+      <c r="B395" t="s">
+        <v>191</v>
+      </c>
+      <c r="C395" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>191</v>
+      </c>
+      <c r="B396" t="s">
+        <v>188</v>
+      </c>
+      <c r="C396" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>225</v>
+      </c>
+      <c r="B397" t="s">
+        <v>241</v>
+      </c>
+      <c r="C397" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>241</v>
+      </c>
+      <c r="B398" t="s">
+        <v>225</v>
+      </c>
+      <c r="C398" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>225</v>
+      </c>
+      <c r="B399" t="s">
+        <v>240</v>
+      </c>
+      <c r="C399" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>240</v>
+      </c>
+      <c r="B400" t="s">
+        <v>225</v>
+      </c>
+      <c r="C400" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>227</v>
+      </c>
+      <c r="B401" t="s">
+        <v>242</v>
+      </c>
+      <c r="C401" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>242</v>
+      </c>
+      <c r="B402" t="s">
+        <v>227</v>
+      </c>
+      <c r="C402" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>227</v>
+      </c>
+      <c r="B403" t="s">
+        <v>243</v>
+      </c>
+      <c r="C403" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>243</v>
+      </c>
+      <c r="B404" t="s">
+        <v>227</v>
+      </c>
+      <c r="C404" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>227</v>
+      </c>
+      <c r="B405" t="s">
+        <v>244</v>
+      </c>
+      <c r="C405" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>244</v>
+      </c>
+      <c r="B406" t="s">
+        <v>227</v>
+      </c>
+      <c r="C406" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
